--- a/inventory_trains.xlsx
+++ b/inventory_trains.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NGENSadmin/Graduate Center Dropbox/Ricardo Toledo-Crow/Urban RF-EMF measurements/RT-C/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngensadmin/Library/CloudStorage/Dropbox-GraduateCenter/Ricardo Toledo-Crow/Urban RF-EMF measurements/RT-C/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA3C829-2EE6-354A-BDBC-C5FDC09BC1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B1C709-E8EC-8643-B74A-44AF29AA8333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12860" yWindow="4040" windowWidth="28100" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="37200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BJ$6</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="103">
   <si>
     <t>date</t>
   </si>
@@ -333,9 +346,6 @@
   </si>
   <si>
     <t>Queens</t>
-  </si>
-  <si>
-    <t>Transportation</t>
   </si>
 </sst>
 </file>
@@ -345,7 +355,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -407,6 +417,2322 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Proportion</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of mean values on MTA trains</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.4957563447377255E-2"/>
+          <c:y val="0.28258860058564816"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0503312427579182E-2"/>
+          <c:y val="0.26459384166646532"/>
+          <c:w val="0.82975336988017823"/>
+          <c:h val="0.58176219581196698"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Downlink</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.0033820399274539E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9E1A-EF40-8776-7F99C8AE6A18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.6909915116429889E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9E1A-EF40-8776-7F99C8AE6A18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Broadcast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.5237950801746831E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E1A-EF40-8776-7F99C8AE6A18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WLAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.1508479983368203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9E1A-EF40-8776-7F99C8AE6A18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uplink</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.25084318029191838</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9E1A-EF40-8776-7F99C8AE6A18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="500"/>
+        <c:overlap val="100"/>
+        <c:axId val="914245663"/>
+        <c:axId val="914163791"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="914245663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="914163791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="914163791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="914245663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mean values on MTA trains</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.351689429113636E-2"/>
+          <c:y val="0.1352388302802745"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3430686579879628E-2"/>
+          <c:y val="0.21615008156606852"/>
+          <c:w val="0.82637594076469922"/>
+          <c:h val="0.51313353566973818"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uplink</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.25084318029191838</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-34AB-ED4B-9B7C-9B3C46C480E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WLAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.1508479983368203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-34AB-ED4B-9B7C-9B3C46C480E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Broadcast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.5237950801746831E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-34AB-ED4B-9B7C-9B3C46C480E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.6909915116429889E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-34AB-ED4B-9B7C-9B3C46C480E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Downlink</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.0033820399274539E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-34AB-ED4B-9B7C-9B3C46C480E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.37601119781998121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-34AB-ED4B-9B7C-9B3C46C480E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="500"/>
+        <c:axId val="914245663"/>
+        <c:axId val="914163791"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="914245663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="914163791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="914163791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="914245663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>234950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC6FC9B-DD3C-27B4-ADF3-76DDEA87AEDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88092217-12D6-40EB-60E9-3CC2B21FC4E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -728,13 +3054,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AW1" sqref="AW1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -794,7 +3120,7 @@
     <col min="62" max="62" width="13" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="3" customFormat="1">
+    <row r="1" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -982,7 +3308,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:62">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1167,7 +3493,7 @@
         <v>0.3023963604070441</v>
       </c>
     </row>
-    <row r="3" spans="1:62">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -1352,7 +3678,7 @@
         <v>0.25550416573955298</v>
       </c>
     </row>
-    <row r="4" spans="1:62">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -1537,7 +3863,7 @@
         <v>0.62558907386268781</v>
       </c>
     </row>
-    <row r="5" spans="1:62">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -1722,7 +4048,7 @@
         <v>0.2308600815920509</v>
       </c>
     </row>
-    <row r="6" spans="1:62">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -1919,20 +4245,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -1967,7 +4293,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
@@ -2002,7 +4328,7 @@
         <v>5.6635174296327577E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>93</v>
       </c>
@@ -2037,7 +4363,7 @@
         <v>0.12502312099581059</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>93</v>
       </c>
@@ -2072,7 +4398,7 @@
         <v>0.38806905268234437</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>93</v>
       </c>
@@ -2107,7 +4433,7 @@
         <v>7.5571634945059224E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>93</v>
       </c>
@@ -2142,7 +4468,7 @@
         <v>6.5636969860080746E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>93</v>
       </c>
@@ -2177,10 +4503,10 @@
         <v>0.36587108966007109</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>100</v>
       </c>
@@ -2215,7 +4541,7 @@
         <v>5.1414813276676373E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>100</v>
       </c>
@@ -2250,7 +4576,7 @@
         <v>0.1101143743683929</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>100</v>
       </c>
@@ -2285,7 +4611,7 @@
         <v>0.30255897087415712</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>100</v>
       </c>
@@ -2320,7 +4646,7 @@
         <v>6.9730555061730287E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>100</v>
       </c>
@@ -2355,7 +4681,7 @@
         <v>6.4876609636293131E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>100</v>
       </c>
@@ -2390,10 +4716,10 @@
         <v>0.27767420797300829</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>101</v>
       </c>
@@ -2428,7 +4754,7 @@
         <v>8.4269600390906113E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>101</v>
       </c>
@@ -2463,7 +4789,7 @@
         <v>0.18810067504321251</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>101</v>
       </c>
@@ -2498,7 +4824,7 @@
         <v>0.32685516641476259</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>101</v>
       </c>
@@ -2533,7 +4859,7 @@
         <v>7.9896899661988555E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>101</v>
       </c>
@@ -2568,7 +4894,7 @@
         <v>7.827900760736145E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>101</v>
       </c>
@@ -2603,10 +4929,10 @@
         <v>0.31966616091383121</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>102</v>
       </c>
@@ -2641,7 +4967,7 @@
         <v>5.4250909389784256E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>102</v>
       </c>
@@ -2676,7 +5002,7 @@
         <v>3.6361821766586318E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>102</v>
       </c>
@@ -2711,7 +5037,7 @@
         <v>0.65953458324611913</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
@@ -2746,7 +5072,7 @@
         <v>5.6416865539523152E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>102</v>
       </c>
@@ -2781,7 +5107,7 @@
         <v>4.7321683665024282E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>102</v>
       </c>
@@ -2816,220 +5142,137 @@
         <v>0.62558907386268781</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1.1354734695271391E-2</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1.1354734695271391E-2</v>
-      </c>
-      <c r="E30" s="2">
-        <v>2.5237950801746831E-2</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1.7217455070903349E-2</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1.9376274151652578E-2</v>
-      </c>
-      <c r="H30" s="2">
-        <v>2.004669548828435E-2</v>
-      </c>
-      <c r="I30" s="2">
-        <v>2.6542042121886551E-2</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0.74981580404790082</v>
-      </c>
-      <c r="K30" s="2">
-        <v>5.6635174296327577E-2</v>
-      </c>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="2">
-        <v>5.8266628527828858E-3</v>
-      </c>
-      <c r="D31" s="2">
-        <v>5.8266628527828858E-3</v>
-      </c>
-      <c r="E31" s="2">
-        <v>6.0033820399274539E-2</v>
-      </c>
-      <c r="F31" s="2">
-        <v>2.069946450847648E-2</v>
-      </c>
-      <c r="G31" s="2">
-        <v>1.201722997233595E-2</v>
-      </c>
-      <c r="H31" s="2">
-        <v>6.5339174283318924E-2</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0.1586499211508817</v>
-      </c>
-      <c r="J31" s="2">
-        <v>1.5682560409575981</v>
-      </c>
-      <c r="K31" s="2">
-        <v>0.12502312099581059</v>
-      </c>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="2">
-        <v>4.2485291572496014E-3</v>
-      </c>
-      <c r="D32" s="2">
-        <v>3.5980676046433763E-2</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.25084318029191838</v>
-      </c>
-      <c r="F32" s="2">
-        <v>8.7444544416000455E-2</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0.11609068615133369</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0.32468208770087209</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0.63894314976139166</v>
-      </c>
-      <c r="J32" s="2">
-        <v>3.872995641619029</v>
-      </c>
-      <c r="K32" s="2">
-        <v>0.38806905268234437</v>
-      </c>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="2">
-        <v>2.0683326618317462E-2</v>
-      </c>
-      <c r="D33" s="2">
-        <v>9.5600888346445034E-2</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0.1508479983368203</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0.13332628575175209</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0.1365954338471321</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0.19653109901932461</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0.24475604218505401</v>
-      </c>
-      <c r="J33" s="2">
-        <v>0.6767370981407772</v>
-      </c>
-      <c r="K33" s="2">
-        <v>7.5571634945059224E-2</v>
-      </c>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="2">
-        <v>6.3592452382338583E-3</v>
-      </c>
-      <c r="D34" s="2">
-        <v>4.2910305724709052E-2</v>
-      </c>
-      <c r="E34" s="2">
-        <v>7.6909915116429889E-2</v>
-      </c>
-      <c r="F34" s="2">
-        <v>6.2611175967266994E-2</v>
-      </c>
-      <c r="G34" s="2">
-        <v>6.0615588017533709E-2</v>
-      </c>
-      <c r="H34" s="2">
-        <v>8.9420607800556398E-2</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0.12663129044516289</v>
-      </c>
-      <c r="J34" s="2">
-        <v>0.69668402450465294</v>
-      </c>
-      <c r="K34" s="2">
-        <v>6.5636969860080746E-2</v>
-      </c>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="2">
-        <v>4.3445367992456921E-2</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0.1905376865029991</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0.37601119781998121</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0.28932827615384121</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0.27044116695747222</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0.42964383377463172</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0.71879081322638949</v>
-      </c>
-      <c r="J35" s="2">
-        <v>3.87520937498866</v>
-      </c>
-      <c r="K35" s="2">
-        <v>0.36587108966007109</v>
-      </c>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>